--- a/Cypress_Mouse_Hover_Test_Cases.xlsx
+++ b/Cypress_Mouse_Hover_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oladiran Tobi\Documents\GitHub\Cypress_Mouse_Hover_Test_Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oladiran Tobi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004F54B-C3F2-4DFD-ABD1-7768B9BF831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464000E9-A6A0-4281-9C3B-4600D9D6DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Cypress_Mouse_Hover_Test_Cases.xlsx
+++ b/Cypress_Mouse_Hover_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oladiran Tobi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oladiran Tobi\Documents\GitHub\Cypress_Mouse_Hover_Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464000E9-A6A0-4281-9C3B-4600D9D6DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004F54B-C3F2-4DFD-ABD1-7768B9BF831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
